--- a/Tools/本地数据表/Job.xlsx
+++ b/Tools/本地数据表/Job.xlsx
@@ -35,6 +35,70 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Cri</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>系数---攻击</t>
+  </si>
+  <si>
+    <t>系数--防御</t>
+  </si>
+  <si>
+    <t>系数--命中率</t>
+  </si>
+  <si>
+    <t>系数--闪避率</t>
+  </si>
+  <si>
+    <t>系数--暴击率</t>
+  </si>
+  <si>
+    <t>系数--抗性</t>
+  </si>
+  <si>
+    <t>headpic_role_fashi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避 身法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JuChui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>headpic_role_juchui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>RoleId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -51,31 +115,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Defense</t>
-  </si>
-  <si>
-    <t>Hit</t>
-  </si>
-  <si>
-    <t>Dodge</t>
-  </si>
-  <si>
-    <t>Cri</t>
-  </si>
-  <si>
-    <t>Res</t>
-  </si>
-  <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -83,16 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
     <t>关联角色Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -109,24 +143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>系数---攻击</t>
-  </si>
-  <si>
-    <t>系数--防御</t>
-  </si>
-  <si>
-    <t>系数--命中率</t>
-  </si>
-  <si>
-    <t>系数--闪避率</t>
-  </si>
-  <si>
-    <t>系数--暴击率</t>
-  </si>
-  <si>
-    <t>系数--抗性</t>
-  </si>
-  <si>
     <t>天山</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,23 +183,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>headpic_role_fashi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避 身法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>巨锤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JuChui</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>headpic_role_juchui</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -236,9 +236,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -247,6 +250,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -263,10 +334,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="979797"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="202020"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -525,19 +596,26 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="39.375" customWidth="1"/>
-    <col min="6" max="6" width="36.875" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="2" width="27.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,137 +626,136 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>36</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1">
         <v>100</v>
@@ -699,25 +776,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>40</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1">
         <v>100</v>
@@ -738,25 +814,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>19</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
         <v>100</v>
@@ -777,23 +852,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>22</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
